--- a/Sheets/DiJet-EW.xlsx
+++ b/Sheets/DiJet-EW.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/Run15/Working_A_LL/CalculationSheets/July27Sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/Run15/DijetAsymmetryAnalysis/DijetALLCode/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A3425C-EFAF-1243-A276-FF2D4C22E969}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C337258-6D29-364A-A24E-2B887DE55C68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scale - EW" sheetId="12" r:id="rId1"/>
@@ -989,7 +989,8 @@
     <xf numFmtId="11" fontId="1" fillId="10" borderId="0" xfId="388" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="9" xfId="387" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="390" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="7" fillId="4" borderId="9" xfId="387" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="386" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1005,7 +1006,6 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="391" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="390" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="392">
     <cellStyle name="20% - Accent2" xfId="388" builtinId="34"/>
@@ -1744,8 +1744,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I10"/>
+    <sheetView showRuler="0" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1761,24 +1761,24 @@
   <sheetData>
     <row r="1" spans="1:19" ht="26">
       <c r="A1" s="29"/>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
       <c r="R1" s="29"/>
     </row>
     <row r="2" spans="1:19">
@@ -1856,7 +1856,7 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="29"/>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="60" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="40">
@@ -1865,8 +1865,8 @@
       <c r="D4" s="39">
         <v>18.02</v>
       </c>
-      <c r="E4" s="39">
-        <v>18.276199999999999</v>
+      <c r="E4" s="40">
+        <v>18.866199999999999</v>
       </c>
       <c r="F4" s="39">
         <v>18.02</v>
@@ -1880,35 +1880,35 @@
       </c>
       <c r="I4" s="9">
         <f t="shared" ref="I4:I10" si="1">E4</f>
-        <v>18.276199999999999</v>
+        <v>18.866199999999999</v>
       </c>
       <c r="J4" s="39">
         <v>0.46211000000000002</v>
       </c>
       <c r="K4" s="40">
-        <v>5.2267500000000001E-2</v>
+        <v>5.6154700000000002E-2</v>
       </c>
       <c r="L4" s="9">
         <f t="shared" ref="L4:L10" si="2">I4*SQRT(((1-J4)*$C$15)^2+((1-J4)*((C$16-C$17*C$18)*C$19*C$20/C$17))^2)</f>
-        <v>0.16704792755571268</v>
+        <v>0.17244063923854994</v>
       </c>
       <c r="M4" s="9">
         <f t="shared" ref="M4:M10" si="3">I4*J4*SQRT(C$21^2+C$22^2)</f>
-        <v>0.28314860368300082</v>
+        <v>0.29228932638098898</v>
       </c>
       <c r="N4" s="9">
         <f t="shared" ref="N4:N10" si="4">SQRT((I4-H4)^2 + 0)</f>
-        <v>0.31820000000000093</v>
+        <v>0.27179999999999893</v>
       </c>
       <c r="O4" s="49">
-        <v>-0.213613</v>
+        <v>-0.238981</v>
       </c>
       <c r="P4" s="49">
         <v>0.32153599999999999</v>
       </c>
       <c r="Q4" s="10">
         <f>SQRT(K4^2+L4^2+M4^2+N4^2+O4^2+P4^2)</f>
-        <v>0.60089698492299182</v>
+        <v>0.59388107594563189</v>
       </c>
       <c r="R4" s="29"/>
       <c r="S4" s="3"/>
@@ -1924,8 +1924,8 @@
       <c r="D5" s="39">
         <v>20.58</v>
       </c>
-      <c r="E5" s="39">
-        <v>22.0063</v>
+      <c r="E5" s="40">
+        <v>22.026599999999998</v>
       </c>
       <c r="F5" s="39">
         <v>20.56</v>
@@ -1939,25 +1939,25 @@
       </c>
       <c r="I5" s="9">
         <f t="shared" si="1"/>
-        <v>22.0063</v>
+        <v>22.026599999999998</v>
       </c>
       <c r="J5" s="39">
         <v>0.44365399999999999</v>
       </c>
       <c r="K5" s="40">
-        <v>3.7647699999999999E-2</v>
+        <v>3.6904199999999998E-2</v>
       </c>
       <c r="L5" s="9">
         <f t="shared" si="2"/>
-        <v>0.20804329273835775</v>
+        <v>0.20823520500178178</v>
       </c>
       <c r="M5" s="9">
         <f t="shared" si="3"/>
-        <v>0.32732154035287053</v>
+        <v>0.3276234823998827</v>
       </c>
       <c r="N5" s="9">
         <f t="shared" si="4"/>
-        <v>0.3813999999999993</v>
+        <v>0.36110000000000042</v>
       </c>
       <c r="O5" s="49">
         <v>-0.22545799999999999</v>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="Q5" s="10">
         <f t="shared" ref="Q5:Q10" si="5">SQRT(K5^2+L5^2+M5^2+N5^2+O5^2+P5^2)</f>
-        <v>0.61293152142199647</v>
+        <v>0.60069502661883312</v>
       </c>
       <c r="R5" s="29"/>
       <c r="S5" s="3"/>
@@ -1983,8 +1983,8 @@
       <c r="D6" s="39">
         <v>24.98</v>
       </c>
-      <c r="E6" s="39">
-        <v>26.895900000000001</v>
+      <c r="E6" s="40">
+        <v>26.884</v>
       </c>
       <c r="F6" s="39">
         <v>24.97</v>
@@ -1998,25 +1998,25 @@
       </c>
       <c r="I6" s="9">
         <f t="shared" si="1"/>
-        <v>26.895900000000001</v>
+        <v>26.884</v>
       </c>
       <c r="J6" s="39">
         <v>0.42067399999999999</v>
       </c>
       <c r="K6" s="40">
-        <v>4.37349E-2</v>
+        <v>4.38167E-2</v>
       </c>
       <c r="L6" s="9">
         <f t="shared" si="2"/>
-        <v>0.26477124713303141</v>
+        <v>0.26465409999012551</v>
       </c>
       <c r="M6" s="9">
         <f t="shared" si="3"/>
-        <v>0.37932800593320803</v>
+        <v>0.37916017353977233</v>
       </c>
       <c r="N6" s="9">
         <f t="shared" si="4"/>
-        <v>0.41789999999999949</v>
+        <v>0.42980000000000018</v>
       </c>
       <c r="O6" s="49">
         <v>-0.19301399999999999</v>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="Q6" s="10">
         <f t="shared" si="5"/>
-        <v>0.68867531224275369</v>
+        <v>0.69582983398255049</v>
       </c>
       <c r="R6" s="29"/>
       <c r="S6" s="3"/>
@@ -2042,8 +2042,8 @@
       <c r="D7" s="39">
         <v>29.92</v>
       </c>
-      <c r="E7" s="39">
-        <v>32.774299999999997</v>
+      <c r="E7" s="40">
+        <v>32.7639</v>
       </c>
       <c r="F7" s="39">
         <v>29.92</v>
@@ -2057,25 +2057,25 @@
       </c>
       <c r="I7" s="9">
         <f t="shared" si="1"/>
-        <v>32.774299999999997</v>
+        <v>32.7639</v>
       </c>
       <c r="J7" s="39">
         <v>0.40087499999999998</v>
       </c>
       <c r="K7" s="40">
-        <v>5.0704800000000001E-2</v>
+        <v>5.0678300000000003E-2</v>
       </c>
       <c r="L7" s="9">
         <f t="shared" si="2"/>
-        <v>0.33366648510578412</v>
+        <v>0.33356060545480459</v>
       </c>
       <c r="M7" s="9">
         <f t="shared" si="3"/>
-        <v>0.44047935009127037</v>
+        <v>0.44033957638928595</v>
       </c>
       <c r="N7" s="9">
         <f t="shared" si="4"/>
-        <v>0.47440000000000282</v>
+        <v>0.4847999999999999</v>
       </c>
       <c r="O7" s="49">
         <v>-0.21352199999999999</v>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="Q7" s="10">
         <f t="shared" si="5"/>
-        <v>0.79578524256907346</v>
+        <v>0.8019060945927281</v>
       </c>
       <c r="R7" s="29"/>
       <c r="S7" s="3"/>
@@ -2101,8 +2101,8 @@
       <c r="D8" s="39">
         <v>36.42</v>
       </c>
-      <c r="E8" s="39">
-        <v>39.774999999999999</v>
+      <c r="E8" s="40">
+        <v>39.764000000000003</v>
       </c>
       <c r="F8" s="39">
         <v>36.409999999999997</v>
@@ -2116,25 +2116,25 @@
       </c>
       <c r="I8" s="9">
         <f t="shared" si="1"/>
-        <v>39.774999999999999</v>
+        <v>39.764000000000003</v>
       </c>
       <c r="J8" s="39">
         <v>0.38706299999999999</v>
       </c>
       <c r="K8" s="40">
-        <v>5.8934300000000002E-2</v>
+        <v>5.8913600000000003E-2</v>
       </c>
       <c r="L8" s="9">
         <f t="shared" si="2"/>
-        <v>0.41427406558949853</v>
+        <v>0.41415949576620542</v>
       </c>
       <c r="M8" s="9">
         <f t="shared" si="3"/>
-        <v>0.51614889545846443</v>
+        <v>0.5160061515778851</v>
       </c>
       <c r="N8" s="9">
         <f t="shared" si="4"/>
-        <v>0.54830000000000467</v>
+        <v>0.55930000000000035</v>
       </c>
       <c r="O8" s="49">
         <v>-0.24149300000000001</v>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="Q8" s="10">
         <f t="shared" si="5"/>
-        <v>0.92220195363300983</v>
+        <v>0.92865244119072732</v>
       </c>
       <c r="R8" s="29"/>
       <c r="S8" s="3"/>
@@ -2160,8 +2160,8 @@
       <c r="D9" s="39">
         <v>45.96</v>
       </c>
-      <c r="E9" s="39">
-        <v>49.692</v>
+      <c r="E9" s="40">
+        <v>49.6858</v>
       </c>
       <c r="F9" s="39">
         <v>45.95</v>
@@ -2175,25 +2175,25 @@
       </c>
       <c r="I9" s="9">
         <f t="shared" si="1"/>
-        <v>49.692</v>
+        <v>49.6858</v>
       </c>
       <c r="J9" s="39">
         <v>0.37799700000000003</v>
       </c>
       <c r="K9" s="40">
-        <v>6.3427800000000006E-2</v>
+        <v>6.3432600000000006E-2</v>
       </c>
       <c r="L9" s="9">
         <f t="shared" si="2"/>
-        <v>0.5252192989076736</v>
+        <v>0.52515376804449188</v>
       </c>
       <c r="M9" s="9">
         <f t="shared" si="3"/>
-        <v>0.62973522273920401</v>
+        <v>0.62965665157320183</v>
       </c>
       <c r="N9" s="9">
         <f t="shared" si="4"/>
-        <v>0.6402000000000001</v>
+        <v>0.64639999999999986</v>
       </c>
       <c r="O9" s="49">
         <v>-0.23310700000000001</v>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="Q9" s="10">
         <f t="shared" si="5"/>
-        <v>1.0810344165318249</v>
+        <v>1.0846405648483115</v>
       </c>
       <c r="R9" s="29"/>
       <c r="S9" s="3"/>
@@ -2219,8 +2219,8 @@
       <c r="D10" s="39">
         <v>63.54</v>
       </c>
-      <c r="E10" s="39">
-        <v>68.233099999999993</v>
+      <c r="E10" s="40">
+        <v>68.227199999999996</v>
       </c>
       <c r="F10" s="39">
         <v>63.53</v>
@@ -2234,25 +2234,25 @@
       </c>
       <c r="I10" s="9">
         <f t="shared" si="1"/>
-        <v>68.233099999999993</v>
+        <v>68.227199999999996</v>
       </c>
       <c r="J10" s="39">
         <v>0.37095299999999998</v>
       </c>
       <c r="K10" s="40">
-        <v>9.0705300000000003E-2</v>
+        <v>9.0707599999999999E-2</v>
       </c>
       <c r="L10" s="9">
         <f t="shared" si="2"/>
-        <v>0.72935660127551705</v>
+        <v>0.72929353505182903</v>
       </c>
       <c r="M10" s="9">
         <f t="shared" si="3"/>
-        <v>0.8485885081477047</v>
+        <v>0.84851513214400454</v>
       </c>
       <c r="N10" s="9">
         <f t="shared" si="4"/>
-        <v>0.55400000000000205</v>
+        <v>0.55989999999999895</v>
       </c>
       <c r="O10" s="49">
         <v>-0.19443199999999999</v>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="Q10" s="10">
         <f t="shared" si="5"/>
-        <v>1.2763387960540151</v>
+        <v>1.2788262709701852</v>
       </c>
       <c r="R10" s="29"/>
       <c r="S10" s="3"/>
@@ -2329,10 +2329,10 @@
       <c r="S13" s="3"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="62"/>
+      <c r="C14" s="63"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -2526,8 +2526,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AW25"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D10"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -2549,20 +2549,20 @@
   <sheetData>
     <row r="1" spans="1:32" ht="22" customHeight="1">
       <c r="A1" s="29"/>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
       <c r="N1" s="29"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="4" spans="1:32" ht="22" customHeight="1">
       <c r="A4" s="29"/>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="60" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="50">
@@ -2675,8 +2675,8 @@
         <f>SQRT(I4^2 +H4^2 + E4^2 +G4^2 +K4^2)</f>
         <v>4.2461727596881791E-4</v>
       </c>
-      <c r="M4" s="60">
-        <f t="shared" ref="M4:M11" si="0">C4-(F4)</f>
+      <c r="M4" s="61">
+        <f t="shared" ref="M4:M10" si="0">C4-(F4)</f>
         <v>6.1378200000000004E-3</v>
       </c>
       <c r="N4" s="37"/>
@@ -2725,7 +2725,7 @@
         <f t="shared" ref="L5:L10" si="2">SQRT(I5^2 +H5^2 + E5^2 +G5^2 +K5^2)</f>
         <v>3.8598560813533802E-4</v>
       </c>
-      <c r="M5" s="60">
+      <c r="M5" s="61">
         <f t="shared" si="0"/>
         <v>1.7369099999999999E-3</v>
       </c>
@@ -2775,7 +2775,7 @@
         <f t="shared" si="2"/>
         <v>4.6180996329844468E-4</v>
       </c>
-      <c r="M6" s="60">
+      <c r="M6" s="61">
         <f t="shared" si="0"/>
         <v>4.3122600000000001E-3</v>
       </c>
@@ -2825,7 +2825,7 @@
         <f t="shared" si="2"/>
         <v>5.8541220703423936E-4</v>
       </c>
-      <c r="M7" s="60">
+      <c r="M7" s="61">
         <f t="shared" si="0"/>
         <v>9.8533600000000002E-3</v>
       </c>
@@ -2875,7 +2875,7 @@
         <f t="shared" si="2"/>
         <v>9.2065240005950776E-4</v>
       </c>
-      <c r="M8" s="60">
+      <c r="M8" s="61">
         <f t="shared" si="0"/>
         <v>1.8614889999999999E-2</v>
       </c>
@@ -2925,7 +2925,7 @@
         <f t="shared" si="2"/>
         <v>8.5177049301932812E-4</v>
       </c>
-      <c r="M9" s="60">
+      <c r="M9" s="61">
         <f t="shared" si="0"/>
         <v>2.2232689999999999E-2</v>
       </c>
@@ -2975,7 +2975,7 @@
         <f t="shared" si="2"/>
         <v>1.6800705555177855E-3</v>
       </c>
-      <c r="M10" s="60">
+      <c r="M10" s="61">
         <f t="shared" si="0"/>
         <v>9.1493180000000007E-2</v>
       </c>

--- a/Sheets/DiJet-EW.xlsx
+++ b/Sheets/DiJet-EW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/Run15/DijetAsymmetryAnalysis/DijetALLCode/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C337258-6D29-364A-A24E-2B887DE55C68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65514118-6DDA-954E-8D6A-BE106DADC4EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scale - EW" sheetId="12" r:id="rId1"/>
@@ -1744,8 +1744,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4:O10"/>
+    <sheetView showRuler="0" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1872,11 +1872,11 @@
         <v>18.02</v>
       </c>
       <c r="G4" s="39">
-        <v>18.5944</v>
+        <v>19.18</v>
       </c>
       <c r="H4" s="9">
         <f t="shared" ref="H4:H10" si="0">G4</f>
-        <v>18.5944</v>
+        <v>19.18</v>
       </c>
       <c r="I4" s="9">
         <f t="shared" ref="I4:I10" si="1">E4</f>
@@ -1898,7 +1898,7 @@
       </c>
       <c r="N4" s="9">
         <f t="shared" ref="N4:N10" si="4">SQRT((I4-H4)^2 + 0)</f>
-        <v>0.27179999999999893</v>
+        <v>0.31380000000000052</v>
       </c>
       <c r="O4" s="49">
         <v>-0.238981</v>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="Q4" s="10">
         <f>SQRT(K4^2+L4^2+M4^2+N4^2+O4^2+P4^2)</f>
-        <v>0.59388107594563189</v>
+        <v>0.61423931196752812</v>
       </c>
       <c r="R4" s="29"/>
       <c r="S4" s="3"/>
@@ -1931,11 +1931,11 @@
         <v>20.56</v>
       </c>
       <c r="G5" s="39">
-        <v>22.387699999999999</v>
+        <v>22.373100000000001</v>
       </c>
       <c r="H5" s="9">
         <f t="shared" si="0"/>
-        <v>22.387699999999999</v>
+        <v>22.373100000000001</v>
       </c>
       <c r="I5" s="9">
         <f t="shared" si="1"/>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="N5" s="9">
         <f t="shared" si="4"/>
-        <v>0.36110000000000042</v>
+        <v>0.34650000000000247</v>
       </c>
       <c r="O5" s="49">
         <v>-0.22545799999999999</v>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="Q5" s="10">
         <f t="shared" ref="Q5:Q10" si="5">SQRT(K5^2+L5^2+M5^2+N5^2+O5^2+P5^2)</f>
-        <v>0.60069502661883312</v>
+        <v>0.59203340700048512</v>
       </c>
       <c r="R5" s="29"/>
       <c r="S5" s="3"/>
@@ -1990,11 +1990,11 @@
         <v>24.97</v>
       </c>
       <c r="G6" s="39">
-        <v>27.313800000000001</v>
+        <v>27.308299999999999</v>
       </c>
       <c r="H6" s="9">
         <f t="shared" si="0"/>
-        <v>27.313800000000001</v>
+        <v>27.308299999999999</v>
       </c>
       <c r="I6" s="9">
         <f t="shared" si="1"/>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="N6" s="9">
         <f t="shared" si="4"/>
-        <v>0.42980000000000018</v>
+        <v>0.42429999999999879</v>
       </c>
       <c r="O6" s="49">
         <v>-0.19301399999999999</v>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="Q6" s="10">
         <f t="shared" si="5"/>
-        <v>0.69582983398255049</v>
+        <v>0.69244610466099277</v>
       </c>
       <c r="R6" s="29"/>
       <c r="S6" s="3"/>
@@ -2049,11 +2049,11 @@
         <v>29.92</v>
       </c>
       <c r="G7" s="39">
-        <v>33.248699999999999</v>
+        <v>33.239899999999999</v>
       </c>
       <c r="H7" s="9">
         <f t="shared" si="0"/>
-        <v>33.248699999999999</v>
+        <v>33.239899999999999</v>
       </c>
       <c r="I7" s="9">
         <f t="shared" si="1"/>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="N7" s="9">
         <f t="shared" si="4"/>
-        <v>0.4847999999999999</v>
+        <v>0.47599999999999909</v>
       </c>
       <c r="O7" s="49">
         <v>-0.21352199999999999</v>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="Q7" s="10">
         <f t="shared" si="5"/>
-        <v>0.8019060945927281</v>
+        <v>0.79661681161331299</v>
       </c>
       <c r="R7" s="29"/>
       <c r="S7" s="3"/>
@@ -2108,11 +2108,11 @@
         <v>36.409999999999997</v>
       </c>
       <c r="G8" s="39">
-        <v>40.323300000000003</v>
+        <v>40.313099999999999</v>
       </c>
       <c r="H8" s="9">
         <f t="shared" si="0"/>
-        <v>40.323300000000003</v>
+        <v>40.313099999999999</v>
       </c>
       <c r="I8" s="9">
         <f t="shared" si="1"/>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="N8" s="9">
         <f t="shared" si="4"/>
-        <v>0.55930000000000035</v>
+        <v>0.5490999999999957</v>
       </c>
       <c r="O8" s="49">
         <v>-0.24149300000000001</v>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="Q8" s="10">
         <f t="shared" si="5"/>
-        <v>0.92865244119072732</v>
+        <v>0.92254521652301258</v>
       </c>
       <c r="R8" s="29"/>
       <c r="S8" s="3"/>
@@ -2167,11 +2167,11 @@
         <v>45.95</v>
       </c>
       <c r="G9" s="39">
-        <v>50.3322</v>
+        <v>50.327800000000003</v>
       </c>
       <c r="H9" s="9">
         <f t="shared" si="0"/>
-        <v>50.3322</v>
+        <v>50.327800000000003</v>
       </c>
       <c r="I9" s="9">
         <f t="shared" si="1"/>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="N9" s="9">
         <f t="shared" si="4"/>
-        <v>0.64639999999999986</v>
+        <v>0.64200000000000301</v>
       </c>
       <c r="O9" s="49">
         <v>-0.23310700000000001</v>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="Q9" s="10">
         <f t="shared" si="5"/>
-        <v>1.0846405648483115</v>
+        <v>1.0820241193774141</v>
       </c>
       <c r="R9" s="29"/>
       <c r="S9" s="3"/>
@@ -2226,11 +2226,11 @@
         <v>63.53</v>
       </c>
       <c r="G10" s="39">
-        <v>68.787099999999995</v>
+        <v>68.779200000000003</v>
       </c>
       <c r="H10" s="9">
         <f t="shared" si="0"/>
-        <v>68.787099999999995</v>
+        <v>68.779200000000003</v>
       </c>
       <c r="I10" s="9">
         <f t="shared" si="1"/>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="N10" s="9">
         <f t="shared" si="4"/>
-        <v>0.55989999999999895</v>
+        <v>0.55200000000000671</v>
       </c>
       <c r="O10" s="49">
         <v>-0.19443199999999999</v>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="Q10" s="10">
         <f t="shared" si="5"/>
-        <v>1.2788262709701852</v>
+        <v>1.2753872436728846</v>
       </c>
       <c r="R10" s="29"/>
       <c r="S10" s="3"/>

--- a/Sheets/DiJet-EW.xlsx
+++ b/Sheets/DiJet-EW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/Run15/DijetAsymmetryAnalysis/DijetALLCode/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65514118-6DDA-954E-8D6A-BE106DADC4EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221BC435-7DD7-8C44-AA8B-C75EA27FE5F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24000" yWindow="-20400" windowWidth="24000" windowHeight="38400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scale - EW" sheetId="12" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>ALL</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>17.0 - 19.0</t>
+  </si>
+  <si>
+    <t>Sys with lumi</t>
   </si>
 </sst>
 </file>
@@ -1744,8 +1747,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4:Q10"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1889,15 +1892,15 @@
         <v>5.6154700000000002E-2</v>
       </c>
       <c r="L4" s="9">
-        <f t="shared" ref="L4:L10" si="2">I4*SQRT(((1-J4)*$C$15)^2+((1-J4)*((C$16-C$17*C$18)*C$19*C$20/C$17))^2)</f>
+        <f>I4*SQRT(((1-J4)*$C$15)^2+((1-J4)*((C$16-C$17*C$18)*C$19*C$20/C$17))^2)</f>
         <v>0.17244063923854994</v>
       </c>
       <c r="M4" s="9">
-        <f t="shared" ref="M4:M10" si="3">I4*J4*SQRT(C$21^2+C$22^2)</f>
+        <f t="shared" ref="M4:M10" si="2">I4*J4*SQRT(C$21^2+C$22^2)</f>
         <v>0.29228932638098898</v>
       </c>
       <c r="N4" s="9">
-        <f t="shared" ref="N4:N10" si="4">SQRT((I4-H4)^2 + 0)</f>
+        <f t="shared" ref="N4:N10" si="3">SQRT((I4-H4)^2 + 0)</f>
         <v>0.31380000000000052</v>
       </c>
       <c r="O4" s="49">
@@ -1948,15 +1951,15 @@
         <v>3.6904199999999998E-2</v>
       </c>
       <c r="L5" s="9">
+        <f t="shared" ref="L4:L10" si="4">I5*SQRT(((1-J5)*$C$15)^2+((1-J5)*((C$16-C$17*C$18)*C$19*C$20/C$17))^2)</f>
+        <v>0.20823520500178178</v>
+      </c>
+      <c r="M5" s="9">
         <f t="shared" si="2"/>
-        <v>0.20823520500178178</v>
-      </c>
-      <c r="M5" s="9">
+        <v>0.3276234823998827</v>
+      </c>
+      <c r="N5" s="9">
         <f t="shared" si="3"/>
-        <v>0.3276234823998827</v>
-      </c>
-      <c r="N5" s="9">
-        <f t="shared" si="4"/>
         <v>0.34650000000000247</v>
       </c>
       <c r="O5" s="49">
@@ -2007,15 +2010,15 @@
         <v>4.38167E-2</v>
       </c>
       <c r="L6" s="9">
+        <f t="shared" si="4"/>
+        <v>0.26465409999012551</v>
+      </c>
+      <c r="M6" s="9">
         <f t="shared" si="2"/>
-        <v>0.26465409999012551</v>
-      </c>
-      <c r="M6" s="9">
+        <v>0.37916017353977233</v>
+      </c>
+      <c r="N6" s="9">
         <f t="shared" si="3"/>
-        <v>0.37916017353977233</v>
-      </c>
-      <c r="N6" s="9">
-        <f t="shared" si="4"/>
         <v>0.42429999999999879</v>
       </c>
       <c r="O6" s="49">
@@ -2066,15 +2069,15 @@
         <v>5.0678300000000003E-2</v>
       </c>
       <c r="L7" s="9">
+        <f t="shared" si="4"/>
+        <v>0.33356060545480459</v>
+      </c>
+      <c r="M7" s="9">
         <f t="shared" si="2"/>
-        <v>0.33356060545480459</v>
-      </c>
-      <c r="M7" s="9">
+        <v>0.44033957638928595</v>
+      </c>
+      <c r="N7" s="9">
         <f t="shared" si="3"/>
-        <v>0.44033957638928595</v>
-      </c>
-      <c r="N7" s="9">
-        <f t="shared" si="4"/>
         <v>0.47599999999999909</v>
       </c>
       <c r="O7" s="49">
@@ -2125,15 +2128,15 @@
         <v>5.8913600000000003E-2</v>
       </c>
       <c r="L8" s="9">
+        <f t="shared" si="4"/>
+        <v>0.41415949576620542</v>
+      </c>
+      <c r="M8" s="9">
         <f t="shared" si="2"/>
-        <v>0.41415949576620542</v>
-      </c>
-      <c r="M8" s="9">
+        <v>0.5160061515778851</v>
+      </c>
+      <c r="N8" s="9">
         <f t="shared" si="3"/>
-        <v>0.5160061515778851</v>
-      </c>
-      <c r="N8" s="9">
-        <f t="shared" si="4"/>
         <v>0.5490999999999957</v>
       </c>
       <c r="O8" s="49">
@@ -2184,15 +2187,15 @@
         <v>6.3432600000000006E-2</v>
       </c>
       <c r="L9" s="9">
+        <f t="shared" si="4"/>
+        <v>0.52515376804449188</v>
+      </c>
+      <c r="M9" s="9">
         <f t="shared" si="2"/>
-        <v>0.52515376804449188</v>
-      </c>
-      <c r="M9" s="9">
+        <v>0.62965665157320183</v>
+      </c>
+      <c r="N9" s="9">
         <f t="shared" si="3"/>
-        <v>0.62965665157320183</v>
-      </c>
-      <c r="N9" s="9">
-        <f t="shared" si="4"/>
         <v>0.64200000000000301</v>
       </c>
       <c r="O9" s="49">
@@ -2243,15 +2246,15 @@
         <v>9.0707599999999999E-2</v>
       </c>
       <c r="L10" s="9">
+        <f t="shared" si="4"/>
+        <v>0.72929353505182903</v>
+      </c>
+      <c r="M10" s="9">
         <f t="shared" si="2"/>
-        <v>0.72929353505182903</v>
-      </c>
-      <c r="M10" s="9">
+        <v>0.84851513214400454</v>
+      </c>
+      <c r="N10" s="9">
         <f t="shared" si="3"/>
-        <v>0.84851513214400454</v>
-      </c>
-      <c r="N10" s="9">
-        <f t="shared" si="4"/>
         <v>0.55200000000000671</v>
       </c>
       <c r="O10" s="49">
@@ -2526,8 +2529,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AW25"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H10"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -2630,7 +2633,9 @@
       <c r="L3" s="52"/>
       <c r="M3" s="53"/>
       <c r="N3" s="37"/>
-      <c r="O3" s="7"/>
+      <c r="O3" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -2680,7 +2685,10 @@
         <v>6.1378200000000004E-3</v>
       </c>
       <c r="N4" s="37"/>
-      <c r="O4" s="7"/>
+      <c r="O4" s="7">
+        <f>SQRT(L4*L4+F$13*F$13)</f>
+        <v>8.1871840766601755E-4</v>
+      </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
@@ -2730,7 +2738,10 @@
         <v>1.7369099999999999E-3</v>
       </c>
       <c r="N5" s="37"/>
-      <c r="O5" s="7"/>
+      <c r="O5" s="7">
+        <f t="shared" ref="O5:O10" si="3">SQRT(L5*L5+F$13*F$13)</f>
+        <v>7.9936530428059401E-4</v>
+      </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
@@ -2780,7 +2791,10 @@
         <v>4.3122600000000001E-3</v>
       </c>
       <c r="N6" s="37"/>
-      <c r="O6" s="7"/>
+      <c r="O6" s="7">
+        <f t="shared" si="3"/>
+        <v>8.3861101960426847E-4</v>
+      </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
@@ -2830,7 +2844,10 @@
         <v>9.8533600000000002E-3</v>
       </c>
       <c r="N7" s="37"/>
-      <c r="O7" s="7"/>
+      <c r="O7" s="7">
+        <f t="shared" si="3"/>
+        <v>9.1252805553840321E-4</v>
+      </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
@@ -2880,7 +2897,10 @@
         <v>1.8614889999999999E-2</v>
       </c>
       <c r="N8" s="37"/>
-      <c r="O8" s="7"/>
+      <c r="O8" s="7">
+        <f t="shared" si="3"/>
+        <v>1.1565469474843345E-3</v>
+      </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
@@ -2930,7 +2950,10 @@
         <v>2.2232689999999999E-2</v>
       </c>
       <c r="N9" s="37"/>
-      <c r="O9" s="7"/>
+      <c r="O9" s="7">
+        <f t="shared" si="3"/>
+        <v>1.1025030488748724E-3</v>
+      </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
@@ -2980,7 +3003,10 @@
         <v>9.1493180000000007E-2</v>
       </c>
       <c r="N10" s="37"/>
-      <c r="O10" s="7"/>
+      <c r="O10" s="7">
+        <f t="shared" si="3"/>
+        <v>1.8200651283725648E-3</v>
+      </c>
       <c r="P10" s="5"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>

--- a/Sheets/DiJet-EW.xlsx
+++ b/Sheets/DiJet-EW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/Run15/DijetAsymmetryAnalysis/DijetALLCode/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221BC435-7DD7-8C44-AA8B-C75EA27FE5F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0AC623-8581-8B4B-9D13-41FD1618D053}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24000" yWindow="-20400" windowWidth="24000" windowHeight="38400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1747,8 +1747,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -2007,7 +2007,7 @@
         <v>0.42067399999999999</v>
       </c>
       <c r="K6" s="40">
-        <v>4.38167E-2</v>
+        <v>4.3818000000000003E-2</v>
       </c>
       <c r="L6" s="9">
         <f t="shared" si="4"/>
@@ -2029,7 +2029,7 @@
       </c>
       <c r="Q6" s="10">
         <f t="shared" si="5"/>
-        <v>0.69244610466099277</v>
+        <v>0.69244618692378723</v>
       </c>
       <c r="R6" s="29"/>
       <c r="S6" s="3"/>
@@ -2046,39 +2046,39 @@
         <v>29.92</v>
       </c>
       <c r="E7" s="40">
-        <v>32.7639</v>
+        <v>32.764000000000003</v>
       </c>
       <c r="F7" s="39">
         <v>29.92</v>
       </c>
       <c r="G7" s="39">
-        <v>33.239899999999999</v>
+        <v>33.240200000000002</v>
       </c>
       <c r="H7" s="9">
         <f t="shared" si="0"/>
-        <v>33.239899999999999</v>
+        <v>33.240200000000002</v>
       </c>
       <c r="I7" s="9">
         <f t="shared" si="1"/>
-        <v>32.7639</v>
+        <v>32.764000000000003</v>
       </c>
       <c r="J7" s="39">
         <v>0.40087499999999998</v>
       </c>
       <c r="K7" s="40">
-        <v>5.0678300000000003E-2</v>
+        <v>5.0684699999999999E-2</v>
       </c>
       <c r="L7" s="9">
         <f t="shared" si="4"/>
-        <v>0.33356060545480459</v>
+        <v>0.33356162352837171</v>
       </c>
       <c r="M7" s="9">
         <f t="shared" si="2"/>
-        <v>0.44033957638928595</v>
+        <v>0.44034092036718975</v>
       </c>
       <c r="N7" s="9">
         <f t="shared" si="3"/>
-        <v>0.47599999999999909</v>
+        <v>0.47619999999999862</v>
       </c>
       <c r="O7" s="49">
         <v>-0.21352199999999999</v>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="Q7" s="10">
         <f t="shared" si="5"/>
-        <v>0.79661681161331299</v>
+        <v>0.79673790926677734</v>
       </c>
       <c r="R7" s="29"/>
       <c r="S7" s="3"/>
@@ -2105,39 +2105,39 @@
         <v>36.42</v>
       </c>
       <c r="E8" s="40">
-        <v>39.764000000000003</v>
+        <v>39.764800000000001</v>
       </c>
       <c r="F8" s="39">
         <v>36.409999999999997</v>
       </c>
       <c r="G8" s="39">
-        <v>40.313099999999999</v>
+        <v>40.314100000000003</v>
       </c>
       <c r="H8" s="9">
         <f t="shared" si="0"/>
-        <v>40.313099999999999</v>
+        <v>40.314100000000003</v>
       </c>
       <c r="I8" s="9">
         <f t="shared" si="1"/>
-        <v>39.764000000000003</v>
+        <v>39.764800000000001</v>
       </c>
       <c r="J8" s="39">
         <v>0.38706299999999999</v>
       </c>
       <c r="K8" s="40">
-        <v>5.8913600000000003E-2</v>
+        <v>5.8951200000000002E-2</v>
       </c>
       <c r="L8" s="9">
         <f t="shared" si="4"/>
-        <v>0.41415949576620542</v>
+        <v>0.41416782811699038</v>
       </c>
       <c r="M8" s="9">
         <f t="shared" si="2"/>
-        <v>0.5160061515778851</v>
+        <v>0.51601653295101813</v>
       </c>
       <c r="N8" s="9">
         <f t="shared" si="3"/>
-        <v>0.5490999999999957</v>
+        <v>0.54930000000000234</v>
       </c>
       <c r="O8" s="49">
         <v>-0.24149300000000001</v>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="Q8" s="10">
         <f t="shared" si="5"/>
-        <v>0.92254521652301258</v>
+        <v>0.92267621838452984</v>
       </c>
       <c r="R8" s="29"/>
       <c r="S8" s="3"/>
@@ -2164,39 +2164,39 @@
         <v>45.96</v>
       </c>
       <c r="E9" s="40">
-        <v>49.6858</v>
+        <v>49.695700000000002</v>
       </c>
       <c r="F9" s="39">
         <v>45.95</v>
       </c>
       <c r="G9" s="39">
-        <v>50.327800000000003</v>
+        <v>50.340400000000002</v>
       </c>
       <c r="H9" s="9">
         <f t="shared" si="0"/>
-        <v>50.327800000000003</v>
+        <v>50.340400000000002</v>
       </c>
       <c r="I9" s="9">
         <f t="shared" si="1"/>
-        <v>49.6858</v>
+        <v>49.695700000000002</v>
       </c>
       <c r="J9" s="39">
         <v>0.37799700000000003</v>
       </c>
       <c r="K9" s="40">
-        <v>6.3432600000000006E-2</v>
+        <v>6.3664399999999996E-2</v>
       </c>
       <c r="L9" s="9">
         <f t="shared" si="4"/>
-        <v>0.52515376804449188</v>
+        <v>0.52525840603570151</v>
       </c>
       <c r="M9" s="9">
         <f t="shared" si="2"/>
-        <v>0.62965665157320183</v>
+        <v>0.62978211198343126</v>
       </c>
       <c r="N9" s="9">
         <f t="shared" si="3"/>
-        <v>0.64200000000000301</v>
+        <v>0.64470000000000027</v>
       </c>
       <c r="O9" s="49">
         <v>-0.23310700000000001</v>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="Q9" s="10">
         <f t="shared" si="5"/>
-        <v>1.0820241193774141</v>
+        <v>1.0837655044901722</v>
       </c>
       <c r="R9" s="29"/>
       <c r="S9" s="3"/>
@@ -2223,39 +2223,39 @@
         <v>63.54</v>
       </c>
       <c r="E10" s="40">
-        <v>68.227199999999996</v>
+        <v>68.4893</v>
       </c>
       <c r="F10" s="39">
         <v>63.53</v>
       </c>
       <c r="G10" s="39">
-        <v>68.779200000000003</v>
+        <v>69.090999999999994</v>
       </c>
       <c r="H10" s="9">
         <f t="shared" si="0"/>
-        <v>68.779200000000003</v>
+        <v>69.090999999999994</v>
       </c>
       <c r="I10" s="9">
         <f t="shared" si="1"/>
-        <v>68.227199999999996</v>
+        <v>68.4893</v>
       </c>
       <c r="J10" s="39">
         <v>0.37095299999999998</v>
       </c>
       <c r="K10" s="40">
-        <v>9.0707599999999999E-2</v>
+        <v>9.4417399999999999E-2</v>
       </c>
       <c r="L10" s="9">
         <f t="shared" si="4"/>
-        <v>0.72929353505182903</v>
+        <v>0.73209517187023998</v>
       </c>
       <c r="M10" s="9">
         <f t="shared" si="2"/>
-        <v>0.84851513214400454</v>
+        <v>0.85177476783380202</v>
       </c>
       <c r="N10" s="9">
         <f t="shared" si="3"/>
-        <v>0.55200000000000671</v>
+        <v>0.60169999999999391</v>
       </c>
       <c r="O10" s="49">
         <v>-0.19443199999999999</v>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="Q10" s="10">
         <f t="shared" si="5"/>
-        <v>1.2753872436728846</v>
+        <v>1.301643151596011</v>
       </c>
       <c r="R10" s="29"/>
       <c r="S10" s="3"/>

--- a/Sheets/DiJet-EW.xlsx
+++ b/Sheets/DiJet-EW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/Run15/DijetAsymmetryAnalysis/DijetALLCode/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0AC623-8581-8B4B-9D13-41FD1618D053}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D909E20D-A409-D646-A10D-5BB5227DDDB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24000" yWindow="-20400" windowWidth="24000" windowHeight="38400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6180" yWindow="1820" windowWidth="24000" windowHeight="17540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scale - EW" sheetId="12" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>ALL</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>4% track loss</t>
-  </si>
-  <si>
-    <t>4% Track Loss</t>
   </si>
   <si>
     <t>Best Fit</t>
@@ -182,11 +179,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000000E+00"/>
     <numFmt numFmtId="165" formatCode="0.0E+00"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="171" formatCode="0.0000"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -891,7 +889,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1009,6 +1007,7 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="391" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="392">
     <cellStyle name="20% - Accent2" xfId="388" builtinId="34"/>
@@ -1747,8 +1746,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K10"/>
+    <sheetView showRuler="0" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1765,7 +1764,7 @@
     <row r="1" spans="1:19" ht="26">
       <c r="A1" s="29"/>
       <c r="B1" s="64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="65"/>
       <c r="D1" s="65"/>
@@ -1787,28 +1786,28 @@
     <row r="2" spans="1:19">
       <c r="A2" s="29"/>
       <c r="B2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>3</v>
@@ -1829,7 +1828,7 @@
         <v>10</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>11</v>
@@ -1860,7 +1859,7 @@
     <row r="4" spans="1:19">
       <c r="A4" s="29"/>
       <c r="B4" s="60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="40">
         <v>18.07</v>
@@ -1919,7 +1918,7 @@
     <row r="5" spans="1:19">
       <c r="A5" s="29"/>
       <c r="B5" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="40">
         <v>20.91</v>
@@ -1951,7 +1950,7 @@
         <v>3.6904199999999998E-2</v>
       </c>
       <c r="L5" s="9">
-        <f t="shared" ref="L4:L10" si="4">I5*SQRT(((1-J5)*$C$15)^2+((1-J5)*((C$16-C$17*C$18)*C$19*C$20/C$17))^2)</f>
+        <f t="shared" ref="L5:L10" si="4">I5*SQRT(((1-J5)*$C$15)^2+((1-J5)*((C$16-C$17*C$18)*C$19*C$20/C$17))^2)</f>
         <v>0.20823520500178178</v>
       </c>
       <c r="M5" s="9">
@@ -1978,7 +1977,7 @@
     <row r="6" spans="1:19">
       <c r="A6" s="29"/>
       <c r="B6" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="40">
         <v>25.18</v>
@@ -2037,7 +2036,7 @@
     <row r="7" spans="1:19">
       <c r="A7" s="29"/>
       <c r="B7" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="40">
         <v>30.47</v>
@@ -2096,7 +2095,7 @@
     <row r="8" spans="1:19">
       <c r="A8" s="29"/>
       <c r="B8" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="40">
         <v>36.840000000000003</v>
@@ -2155,7 +2154,7 @@
     <row r="9" spans="1:19">
       <c r="A9" s="29"/>
       <c r="B9" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="40">
         <v>46.33</v>
@@ -2214,7 +2213,7 @@
     <row r="10" spans="1:19">
       <c r="A10" s="29"/>
       <c r="B10" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="40">
         <v>64.44</v>
@@ -2333,7 +2332,7 @@
     </row>
     <row r="14" spans="1:19">
       <c r="B14" s="62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="63"/>
       <c r="E14" s="21"/>
@@ -2353,7 +2352,7 @@
     </row>
     <row r="15" spans="1:19">
       <c r="B15" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="13">
         <v>0.01</v>
@@ -2362,7 +2361,7 @@
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
       <c r="H15" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I15" s="22"/>
       <c r="J15" s="21"/>
@@ -2377,7 +2376,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="B16" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="13">
         <v>1.1628000000000001</v>
@@ -2399,7 +2398,7 @@
     </row>
     <row r="17" spans="2:19">
       <c r="B17" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="13">
         <v>0.81</v>
@@ -2421,7 +2420,7 @@
     </row>
     <row r="18" spans="2:19">
       <c r="B18" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="13">
         <v>0.72</v>
@@ -2430,7 +2429,7 @@
     </row>
     <row r="19" spans="2:19">
       <c r="B19" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="13">
         <v>0.32</v>
@@ -2444,7 +2443,7 @@
     </row>
     <row r="20" spans="2:19">
       <c r="B20" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="13">
         <v>0.06</v>
@@ -2452,7 +2451,7 @@
     </row>
     <row r="21" spans="2:19">
       <c r="B21" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="13">
         <v>3.2000000000000001E-2</v>
@@ -2461,7 +2460,7 @@
     </row>
     <row r="22" spans="2:19" ht="17" thickBot="1">
       <c r="B22" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="14">
         <v>0.01</v>
@@ -2527,33 +2526,33 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AW25"/>
+  <dimension ref="A1:AV25"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4:O10"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="13" width="16" customWidth="1"/>
-    <col min="14" max="18" width="13.83203125" customWidth="1"/>
-    <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="13.83203125" customWidth="1"/>
-    <col min="24" max="24" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.1640625" customWidth="1"/>
-    <col min="26" max="26" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.1640625" style="2" customWidth="1"/>
-    <col min="32" max="32" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="16" customWidth="1"/>
+    <col min="13" max="17" width="13.83203125" customWidth="1"/>
+    <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="13.83203125" customWidth="1"/>
+    <col min="23" max="23" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.1640625" customWidth="1"/>
+    <col min="25" max="25" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.1640625" style="2" customWidth="1"/>
+    <col min="31" max="31" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="22" customHeight="1">
+    <row r="1" spans="1:31" ht="22" customHeight="1">
       <c r="A1" s="29"/>
       <c r="B1" s="66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="66"/>
       <c r="D1" s="66"/>
@@ -2565,18 +2564,17 @@
       <c r="J1" s="66"/>
       <c r="K1" s="66"/>
       <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="6"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-    </row>
-    <row r="2" spans="1:32" ht="22" customHeight="1">
+    </row>
+    <row r="2" spans="1:31" ht="22" customHeight="1">
       <c r="A2" s="29"/>
       <c r="B2" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>0</v>
@@ -2585,68 +2583,64 @@
         <v>1</v>
       </c>
       <c r="E2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>4</v>
-      </c>
       <c r="G2" s="18" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>43</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-    </row>
-    <row r="3" spans="1:32" ht="22" customHeight="1">
+    </row>
+    <row r="3" spans="1:31" ht="22" customHeight="1">
       <c r="A3" s="29"/>
       <c r="B3" s="43"/>
       <c r="C3" s="57"/>
       <c r="D3" s="58"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="51"/>
       <c r="G3" s="51"/>
       <c r="H3" s="51"/>
       <c r="I3" s="51"/>
       <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" s="5"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="5"/>
+      <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="3"/>
-      <c r="AF3" s="2"/>
-    </row>
-    <row r="4" spans="1:32" ht="22" customHeight="1">
+      <c r="R3" s="5"/>
+      <c r="S3" s="3"/>
+      <c r="AE3" s="2"/>
+    </row>
+    <row r="4" spans="1:31" ht="22" customHeight="1">
       <c r="A4" s="29"/>
       <c r="B4" s="60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="50">
         <v>7.8220000000000008E-3</v>
@@ -2654,52 +2648,49 @@
       <c r="D4" s="38">
         <v>4.0249999999999999E-3</v>
       </c>
-      <c r="E4" s="38">
-        <v>-4.7571899999999998E-5</v>
-      </c>
-      <c r="F4" s="50">
+      <c r="E4" s="50">
         <v>1.68418E-3</v>
       </c>
+      <c r="F4" s="38">
+        <v>4.0321600000000002E-4</v>
+      </c>
       <c r="G4" s="38">
-        <v>4.0321600000000002E-4</v>
+        <v>-1.10239E-4</v>
       </c>
       <c r="H4" s="38">
-        <v>-1.10239E-4</v>
-      </c>
-      <c r="I4" s="38">
-        <v>5.7444100000000001E-5</v>
-      </c>
-      <c r="J4" s="55">
+        <v>5.7444099999999997E-4</v>
+      </c>
+      <c r="I4" s="55">
         <v>0.99982599999999999</v>
       </c>
-      <c r="K4" s="59">
-        <f>((1/J4)-1)*M4</f>
+      <c r="J4" s="59">
+        <f>((1/I4)-1)*L4</f>
         <v>1.0681665409781515E-6</v>
       </c>
-      <c r="L4" s="17">
-        <f>SQRT(I4^2 +H4^2 + E4^2 +G4^2 +K4^2)</f>
-        <v>4.2461727596881791E-4</v>
-      </c>
-      <c r="M4" s="61">
-        <f t="shared" ref="M4:M10" si="0">C4-(F4)</f>
+      <c r="K4" s="17">
+        <f>SQRT(H4^2 +G4^2 +F4^2 +J4^2)</f>
+        <v>7.1043605147666836E-4</v>
+      </c>
+      <c r="L4" s="61">
+        <f>C4-(E4)</f>
         <v>6.1378200000000004E-3</v>
       </c>
-      <c r="N4" s="37"/>
-      <c r="O4" s="7">
-        <f>SQRT(L4*L4+F$13*F$13)</f>
-        <v>8.1871840766601755E-4</v>
-      </c>
-      <c r="P4" s="5"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="67">
+        <f>SQRT(K4*K4+E$13*E$13)</f>
+        <v>9.9735619677112307E-4</v>
+      </c>
+      <c r="O4" s="5"/>
+      <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="3"/>
-      <c r="AF4" s="2"/>
-    </row>
-    <row r="5" spans="1:32" ht="22" customHeight="1">
+      <c r="R4" s="5"/>
+      <c r="S4" s="3"/>
+      <c r="AE4" s="2"/>
+    </row>
+    <row r="5" spans="1:31" ht="22" customHeight="1">
       <c r="A5" s="29"/>
       <c r="B5" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="50">
         <v>3.712E-3</v>
@@ -2707,52 +2698,49 @@
       <c r="D5" s="38">
         <v>2.7390000000000001E-3</v>
       </c>
-      <c r="E5" s="38">
-        <v>-9.9222399999999994E-5</v>
-      </c>
-      <c r="F5" s="50">
+      <c r="E5" s="50">
         <v>1.9750900000000001E-3</v>
       </c>
+      <c r="F5" s="38">
+        <v>3.2928599999999998E-4</v>
+      </c>
       <c r="G5" s="38">
-        <v>3.2928599999999998E-4</v>
+        <v>-1.6493500000000001E-4</v>
       </c>
       <c r="H5" s="38">
-        <v>-1.6493500000000001E-4</v>
-      </c>
-      <c r="I5" s="38">
-        <v>5.9219099999999997E-5</v>
-      </c>
-      <c r="J5" s="55">
+        <v>5.9219100000000005E-4</v>
+      </c>
+      <c r="I5" s="55">
         <v>0.999838</v>
       </c>
-      <c r="K5" s="59">
-        <f t="shared" ref="K5:K10" si="1">((1/J5)-1)*M5</f>
+      <c r="J5" s="59">
+        <f t="shared" ref="J5:J10" si="0">((1/I5)-1)*L5</f>
         <v>2.8142501085178756E-7</v>
       </c>
-      <c r="L5" s="17">
-        <f t="shared" ref="L5:L10" si="2">SQRT(I5^2 +H5^2 + E5^2 +G5^2 +K5^2)</f>
-        <v>3.8598560813533802E-4</v>
-      </c>
-      <c r="M5" s="61">
-        <f t="shared" si="0"/>
+      <c r="K5" s="17">
+        <f t="shared" ref="K5:K10" si="1">SQRT(H5^2 +G5^2 +F5^2 +J5^2)</f>
+        <v>6.973686856333863E-4</v>
+      </c>
+      <c r="L5" s="61">
+        <f>C5-(E5)</f>
         <v>1.7369099999999999E-3</v>
       </c>
-      <c r="N5" s="37"/>
-      <c r="O5" s="7">
-        <f t="shared" ref="O5:O10" si="3">SQRT(L5*L5+F$13*F$13)</f>
-        <v>7.9936530428059401E-4</v>
-      </c>
-      <c r="P5" s="5"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="67">
+        <f t="shared" ref="N5:N10" si="2">SQRT(K5*K5+E$13*E$13)</f>
+        <v>9.8809062524752092E-4</v>
+      </c>
+      <c r="O5" s="5"/>
+      <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="3"/>
-      <c r="AF5" s="2"/>
-    </row>
-    <row r="6" spans="1:32" ht="22" customHeight="1">
+      <c r="R5" s="5"/>
+      <c r="S5" s="3"/>
+      <c r="AE5" s="2"/>
+    </row>
+    <row r="6" spans="1:31" ht="22" customHeight="1">
       <c r="A6" s="29"/>
       <c r="B6" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="50">
         <v>6.4980000000000003E-3</v>
@@ -2760,52 +2748,49 @@
       <c r="D6" s="38">
         <v>3.166E-3</v>
       </c>
-      <c r="E6" s="38">
-        <v>-8.5026900000000004E-5</v>
-      </c>
-      <c r="F6" s="50">
+      <c r="E6" s="50">
         <v>2.1857399999999998E-3</v>
       </c>
+      <c r="F6" s="38">
+        <v>4.2509699999999999E-4</v>
+      </c>
       <c r="G6" s="38">
-        <v>4.2509699999999999E-4</v>
+        <v>-1.36766E-4</v>
       </c>
       <c r="H6" s="38">
-        <v>-1.36766E-4</v>
-      </c>
-      <c r="I6" s="38">
-        <v>8.0392899999999994E-5</v>
-      </c>
-      <c r="J6" s="55">
+        <v>8.0392899999999999E-4</v>
+      </c>
+      <c r="I6" s="55">
         <v>0.99704400000000004</v>
       </c>
-      <c r="K6" s="59">
+      <c r="J6" s="59">
+        <f t="shared" si="0"/>
+        <v>1.2784832524943163E-5</v>
+      </c>
+      <c r="K6" s="17">
         <f t="shared" si="1"/>
-        <v>1.2784832524943163E-5</v>
-      </c>
-      <c r="L6" s="17">
+        <v>9.1971609051309463E-4</v>
+      </c>
+      <c r="L6" s="61">
+        <f>C6-(E6)</f>
+        <v>4.3122600000000001E-3</v>
+      </c>
+      <c r="M6" s="37"/>
+      <c r="N6" s="67">
         <f t="shared" si="2"/>
-        <v>4.6180996329844468E-4</v>
-      </c>
-      <c r="M6" s="61">
-        <f t="shared" si="0"/>
-        <v>4.3122600000000001E-3</v>
-      </c>
-      <c r="N6" s="37"/>
-      <c r="O6" s="7">
-        <f t="shared" si="3"/>
-        <v>8.3861101960426847E-4</v>
-      </c>
-      <c r="P6" s="5"/>
+        <v>1.1558017507984192E-3</v>
+      </c>
+      <c r="O6" s="5"/>
+      <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="3"/>
-      <c r="AF6" s="2"/>
-    </row>
-    <row r="7" spans="1:32" ht="22" customHeight="1">
+      <c r="R6" s="5"/>
+      <c r="S6" s="3"/>
+      <c r="AE6" s="2"/>
+    </row>
+    <row r="7" spans="1:31" ht="22" customHeight="1">
       <c r="A7" s="29"/>
       <c r="B7" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="50">
         <v>1.1748E-2</v>
@@ -2813,52 +2798,49 @@
       <c r="D7" s="38">
         <v>4.431E-3</v>
       </c>
-      <c r="E7" s="38">
-        <v>-2.04012E-5</v>
-      </c>
-      <c r="F7" s="50">
+      <c r="E7" s="50">
         <v>1.89464E-3</v>
       </c>
+      <c r="F7" s="38">
+        <v>5.6556399999999995E-4</v>
+      </c>
       <c r="G7" s="38">
-        <v>5.6556399999999995E-4</v>
+        <v>-1.13381E-4</v>
       </c>
       <c r="H7" s="38">
-        <v>-1.13381E-4</v>
-      </c>
-      <c r="I7" s="38">
-        <v>9.4262E-5</v>
-      </c>
-      <c r="J7" s="55">
+        <v>9.4262000000000002E-4</v>
+      </c>
+      <c r="I7" s="55">
         <v>0.99734500000000004</v>
       </c>
-      <c r="K7" s="59">
+      <c r="J7" s="59">
+        <f t="shared" si="0"/>
+        <v>2.6230312279101559E-5</v>
+      </c>
+      <c r="K7" s="17">
         <f t="shared" si="1"/>
-        <v>2.6230312279101559E-5</v>
-      </c>
-      <c r="L7" s="17">
+        <v>1.1054132181855161E-3</v>
+      </c>
+      <c r="L7" s="61">
+        <f>C7-(E7)</f>
+        <v>9.8533600000000002E-3</v>
+      </c>
+      <c r="M7" s="37"/>
+      <c r="N7" s="67">
         <f t="shared" si="2"/>
-        <v>5.8541220703423936E-4</v>
-      </c>
-      <c r="M7" s="61">
-        <f t="shared" si="0"/>
-        <v>9.8533600000000002E-3</v>
-      </c>
-      <c r="N7" s="37"/>
-      <c r="O7" s="7">
-        <f t="shared" si="3"/>
-        <v>9.1252805553840321E-4</v>
-      </c>
-      <c r="P7" s="5"/>
+        <v>1.3084106323854371E-3</v>
+      </c>
+      <c r="O7" s="5"/>
+      <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="3"/>
-      <c r="AF7" s="2"/>
-    </row>
-    <row r="8" spans="1:32" ht="22" customHeight="1">
+      <c r="R7" s="5"/>
+      <c r="S7" s="3"/>
+      <c r="AE7" s="2"/>
+    </row>
+    <row r="8" spans="1:31" ht="22" customHeight="1">
       <c r="A8" s="29"/>
       <c r="B8" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="50">
         <v>2.0055E-2</v>
@@ -2866,52 +2848,49 @@
       <c r="D8" s="38">
         <v>6.8380000000000003E-3</v>
       </c>
-      <c r="E8" s="38">
-        <v>-4.9433699999999997E-4</v>
-      </c>
-      <c r="F8" s="50">
+      <c r="E8" s="50">
         <v>1.4401100000000001E-3</v>
       </c>
+      <c r="F8" s="38">
+        <v>7.6092399999999995E-4</v>
+      </c>
       <c r="G8" s="38">
-        <v>7.6092399999999995E-4</v>
+        <v>-9.5261700000000003E-5</v>
       </c>
       <c r="H8" s="38">
-        <v>-9.5261700000000003E-5</v>
-      </c>
-      <c r="I8" s="38">
-        <v>1.23091E-4</v>
-      </c>
-      <c r="J8" s="55">
+        <v>1.23091E-3</v>
+      </c>
+      <c r="I8" s="55">
         <v>0.999973</v>
       </c>
-      <c r="K8" s="59">
+      <c r="J8" s="59">
+        <f t="shared" si="0"/>
+        <v>5.0261560062213226E-7</v>
+      </c>
+      <c r="K8" s="17">
         <f t="shared" si="1"/>
-        <v>5.0261560062213226E-7</v>
-      </c>
-      <c r="L8" s="17">
+        <v>1.4502481877200647E-3</v>
+      </c>
+      <c r="L8" s="61">
+        <f>C8-(E8)</f>
+        <v>1.8614889999999999E-2</v>
+      </c>
+      <c r="M8" s="37"/>
+      <c r="N8" s="67">
         <f t="shared" si="2"/>
-        <v>9.2065240005950776E-4</v>
-      </c>
-      <c r="M8" s="61">
-        <f t="shared" si="0"/>
-        <v>1.8614889999999999E-2</v>
-      </c>
-      <c r="N8" s="37"/>
-      <c r="O8" s="7">
-        <f t="shared" si="3"/>
-        <v>1.1565469474843345E-3</v>
-      </c>
-      <c r="P8" s="5"/>
+        <v>1.6103477282827247E-3</v>
+      </c>
+      <c r="O8" s="5"/>
+      <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="3"/>
-      <c r="AF8" s="2"/>
-    </row>
-    <row r="9" spans="1:32" ht="22" customHeight="1">
+      <c r="R8" s="5"/>
+      <c r="S8" s="3"/>
+      <c r="AE8" s="2"/>
+    </row>
+    <row r="9" spans="1:31" ht="22" customHeight="1">
       <c r="A9" s="29"/>
       <c r="B9" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="50">
         <v>2.3306E-2</v>
@@ -2919,52 +2898,49 @@
       <c r="D9" s="38">
         <v>9.7029999999999998E-3</v>
       </c>
-      <c r="E9" s="38">
-        <v>-1.06037E-4</v>
-      </c>
-      <c r="F9" s="50">
+      <c r="E9" s="50">
         <v>1.0733100000000001E-3</v>
       </c>
+      <c r="F9" s="38">
+        <v>8.2478E-4</v>
+      </c>
       <c r="G9" s="38">
-        <v>8.2478E-4</v>
+        <v>-7.9542200000000006E-5</v>
       </c>
       <c r="H9" s="38">
-        <v>-7.9542200000000006E-5</v>
-      </c>
-      <c r="I9" s="38">
-        <v>1.66372E-4</v>
-      </c>
-      <c r="J9" s="55">
+        <v>1.66372E-3</v>
+      </c>
+      <c r="I9" s="55">
         <v>0.999969</v>
       </c>
-      <c r="K9" s="59">
+      <c r="J9" s="59">
+        <f t="shared" si="0"/>
+        <v>6.8923475627794728E-7</v>
+      </c>
+      <c r="K9" s="17">
         <f t="shared" si="1"/>
-        <v>6.8923475627794728E-7</v>
-      </c>
-      <c r="L9" s="17">
+        <v>1.8586429790105976E-3</v>
+      </c>
+      <c r="L9" s="61">
+        <f>C9-(E9)</f>
+        <v>2.2232689999999999E-2</v>
+      </c>
+      <c r="M9" s="37"/>
+      <c r="N9" s="67">
         <f t="shared" si="2"/>
-        <v>8.5177049301932812E-4</v>
-      </c>
-      <c r="M9" s="61">
-        <f t="shared" si="0"/>
-        <v>2.2232689999999999E-2</v>
-      </c>
-      <c r="N9" s="37"/>
-      <c r="O9" s="7">
-        <f t="shared" si="3"/>
-        <v>1.1025030488748724E-3</v>
-      </c>
-      <c r="P9" s="5"/>
+        <v>1.9860900592433839E-3</v>
+      </c>
+      <c r="O9" s="5"/>
+      <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="3"/>
-      <c r="AF9" s="2"/>
-    </row>
-    <row r="10" spans="1:32" ht="22" customHeight="1">
+      <c r="R9" s="5"/>
+      <c r="S9" s="3"/>
+      <c r="AE9" s="2"/>
+    </row>
+    <row r="10" spans="1:31" ht="22" customHeight="1">
       <c r="A10" s="29"/>
       <c r="B10" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="50">
         <v>9.2323000000000002E-2</v>
@@ -2972,199 +2948,191 @@
       <c r="D10" s="38">
         <v>3.0439999999999998E-2</v>
       </c>
-      <c r="E10" s="38">
-        <v>-7.49985E-4</v>
-      </c>
-      <c r="F10" s="50">
+      <c r="E10" s="50">
         <v>8.2981999999999999E-4</v>
       </c>
+      <c r="F10" s="38">
+        <v>1.4782700000000001E-3</v>
+      </c>
       <c r="G10" s="38">
-        <v>1.4782700000000001E-3</v>
+        <v>-6.6062799999999994E-5</v>
       </c>
       <c r="H10" s="38">
-        <v>-6.6062799999999994E-5</v>
-      </c>
-      <c r="I10" s="38">
-        <v>2.6554299999999997E-4</v>
-      </c>
-      <c r="J10" s="55">
+        <v>2.6554299999999999E-3</v>
+      </c>
+      <c r="I10" s="55">
         <v>1</v>
       </c>
-      <c r="K10" s="59">
+      <c r="J10" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="17">
+        <v>3.0398939079092613E-3</v>
+      </c>
+      <c r="L10" s="61">
+        <f>C10-(E10)</f>
+        <v>9.1493180000000007E-2</v>
+      </c>
+      <c r="M10" s="37"/>
+      <c r="N10" s="67">
         <f t="shared" si="2"/>
-        <v>1.6800705555177855E-3</v>
-      </c>
-      <c r="M10" s="61">
-        <f t="shared" si="0"/>
-        <v>9.1493180000000007E-2</v>
-      </c>
-      <c r="N10" s="37"/>
-      <c r="O10" s="7">
-        <f t="shared" si="3"/>
-        <v>1.8200651283725648E-3</v>
-      </c>
-      <c r="P10" s="5"/>
+        <v>3.1194478632193615E-3</v>
+      </c>
+      <c r="O10" s="5"/>
+      <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="3"/>
-      <c r="AF10" s="2"/>
-    </row>
-    <row r="11" spans="1:32" ht="22" customHeight="1">
+      <c r="R10" s="5"/>
+      <c r="S10" s="3"/>
+      <c r="AE10" s="2"/>
+    </row>
+    <row r="11" spans="1:31" ht="22" customHeight="1">
       <c r="A11" s="29"/>
       <c r="B11" s="43"/>
       <c r="C11" s="57"/>
       <c r="D11" s="58"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="51"/>
       <c r="G11" s="51"/>
       <c r="H11" s="51"/>
       <c r="I11" s="51"/>
       <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="5"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="3"/>
-      <c r="AF11" s="2"/>
-    </row>
-    <row r="12" spans="1:32" ht="22" customHeight="1" thickBot="1">
+      <c r="R11" s="5"/>
+      <c r="S11" s="3"/>
+      <c r="AE11" s="2"/>
+    </row>
+    <row r="12" spans="1:31" ht="22" customHeight="1" thickBot="1">
       <c r="A12" s="29"/>
       <c r="B12" s="30"/>
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="35"/>
       <c r="G12" s="35"/>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="5"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="3"/>
-      <c r="AF12" s="2"/>
-    </row>
-    <row r="13" spans="1:32" ht="22" customHeight="1" thickBot="1">
+      <c r="R12" s="5"/>
+      <c r="S12" s="3"/>
+      <c r="AE12" s="2"/>
+    </row>
+    <row r="13" spans="1:31" ht="22" customHeight="1" thickBot="1">
       <c r="B13" s="19"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="41" t="s">
+      <c r="C13" s="34"/>
+      <c r="D13" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="42">
+      <c r="E13" s="42">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="G13" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="35"/>
+      <c r="F13" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="35"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="5"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="3"/>
-      <c r="AF13" s="2"/>
-    </row>
-    <row r="14" spans="1:32" ht="22" customHeight="1">
+      <c r="R13" s="5"/>
+      <c r="S13" s="3"/>
+      <c r="AE13" s="2"/>
+    </row>
+    <row r="14" spans="1:31" ht="22" customHeight="1">
       <c r="B14" s="19"/>
-      <c r="C14" s="24"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
+      <c r="H14" s="25"/>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="5"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="3"/>
-      <c r="AF14" s="2"/>
-    </row>
-    <row r="15" spans="1:32" ht="22" customHeight="1">
+      <c r="R14" s="5"/>
+      <c r="S14" s="3"/>
+      <c r="AE14" s="2"/>
+    </row>
+    <row r="15" spans="1:31" ht="22" customHeight="1">
       <c r="B15" s="19"/>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="5"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="3"/>
-      <c r="AF15" s="2"/>
-    </row>
-    <row r="16" spans="1:32" ht="22" customHeight="1">
+      <c r="R15" s="5"/>
+      <c r="S15" s="3"/>
+      <c r="AE15" s="2"/>
+    </row>
+    <row r="16" spans="1:31" ht="22" customHeight="1">
       <c r="B16" s="19"/>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="5"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="3"/>
-      <c r="AF16" s="2"/>
-    </row>
-    <row r="18" spans="4:49">
+      <c r="R16" s="5"/>
+      <c r="S16" s="3"/>
+      <c r="AE16" s="2"/>
+    </row>
+    <row r="18" spans="4:48">
+      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="4:49">
+    </row>
+    <row r="19" spans="4:48">
+      <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="4:49">
+    </row>
+    <row r="20" spans="4:48">
+      <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -3186,7 +3154,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
+      <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
@@ -3203,9 +3171,8 @@
       <c r="AT20" s="1"/>
       <c r="AU20" s="1"/>
       <c r="AV20" s="1"/>
-      <c r="AW20" s="1"/>
-    </row>
-    <row r="21" spans="4:49">
+    </row>
+    <row r="21" spans="4:48">
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -3228,9 +3195,8 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-    </row>
-    <row r="22" spans="4:49">
+    </row>
+    <row r="22" spans="4:48">
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -3253,16 +3219,15 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
+      <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
-      <c r="AL22" s="1"/>
-    </row>
-    <row r="23" spans="4:49">
+    </row>
+    <row r="23" spans="4:48">
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -3288,10 +3253,10 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AF23" s="1"/>
-    </row>
-    <row r="24" spans="4:49">
+      <c r="AE23" s="1"/>
+    </row>
+    <row r="24" spans="4:48">
+      <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -3315,9 +3280,9 @@
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-    </row>
-    <row r="25" spans="4:49">
+    </row>
+    <row r="25" spans="4:48">
+      <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -3340,11 +3305,10 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B1:L1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Sheets/DiJet-EW.xlsx
+++ b/Sheets/DiJet-EW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/Run15/DijetAsymmetryAnalysis/DijetALLCode/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D909E20D-A409-D646-A10D-5BB5227DDDB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E6B44F-537C-DE45-9C35-4BBC153F0850}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="1820" windowWidth="24000" windowHeight="17540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-20400" windowWidth="24000" windowHeight="38400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scale - EW" sheetId="12" r:id="rId1"/>
@@ -184,7 +184,7 @@
     <numFmt numFmtId="165" formatCode="0.0E+00"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0000E+00"/>
-    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -992,6 +992,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="390" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="7" fillId="4" borderId="9" xfId="387" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="386" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1007,7 +1008,6 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="391" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="392">
     <cellStyle name="20% - Accent2" xfId="388" builtinId="34"/>
@@ -1746,8 +1746,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1763,24 +1763,24 @@
   <sheetData>
     <row r="1" spans="1:19" ht="26">
       <c r="A1" s="29"/>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
       <c r="R1" s="29"/>
     </row>
     <row r="2" spans="1:19">
@@ -1868,21 +1868,21 @@
         <v>18.02</v>
       </c>
       <c r="E4" s="40">
-        <v>18.866199999999999</v>
+        <v>20.482900000000001</v>
       </c>
       <c r="F4" s="39">
         <v>18.02</v>
       </c>
       <c r="G4" s="39">
-        <v>19.18</v>
+        <v>20.7653</v>
       </c>
       <c r="H4" s="9">
         <f t="shared" ref="H4:H10" si="0">G4</f>
-        <v>19.18</v>
+        <v>20.7653</v>
       </c>
       <c r="I4" s="9">
         <f t="shared" ref="I4:I10" si="1">E4</f>
-        <v>18.866199999999999</v>
+        <v>20.482900000000001</v>
       </c>
       <c r="J4" s="39">
         <v>0.46211000000000002</v>
@@ -1892,15 +1892,15 @@
       </c>
       <c r="L4" s="9">
         <f>I4*SQRT(((1-J4)*$C$15)^2+((1-J4)*((C$16-C$17*C$18)*C$19*C$20/C$17))^2)</f>
-        <v>0.17244063923854994</v>
+        <v>0.18721758326845336</v>
       </c>
       <c r="M4" s="9">
         <f t="shared" ref="M4:M10" si="2">I4*J4*SQRT(C$21^2+C$22^2)</f>
-        <v>0.29228932638098898</v>
+        <v>0.31733645584851</v>
       </c>
       <c r="N4" s="9">
         <f t="shared" ref="N4:N10" si="3">SQRT((I4-H4)^2 + 0)</f>
-        <v>0.31380000000000052</v>
+        <v>0.2823999999999991</v>
       </c>
       <c r="O4" s="49">
         <v>-0.238981</v>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="Q4" s="10">
         <f>SQRT(K4^2+L4^2+M4^2+N4^2+O4^2+P4^2)</f>
-        <v>0.61423931196752812</v>
+        <v>0.61575423480838776</v>
       </c>
       <c r="R4" s="29"/>
       <c r="S4" s="3"/>
@@ -1927,21 +1927,21 @@
         <v>20.58</v>
       </c>
       <c r="E5" s="40">
-        <v>22.026599999999998</v>
+        <v>23.648099999999999</v>
       </c>
       <c r="F5" s="39">
         <v>20.56</v>
       </c>
       <c r="G5" s="39">
-        <v>22.373100000000001</v>
+        <v>23.9544</v>
       </c>
       <c r="H5" s="9">
         <f t="shared" si="0"/>
-        <v>22.373100000000001</v>
+        <v>23.9544</v>
       </c>
       <c r="I5" s="9">
         <f t="shared" si="1"/>
-        <v>22.026599999999998</v>
+        <v>23.648099999999999</v>
       </c>
       <c r="J5" s="39">
         <v>0.44365399999999999</v>
@@ -1951,15 +1951,15 @@
       </c>
       <c r="L5" s="9">
         <f t="shared" ref="L5:L10" si="4">I5*SQRT(((1-J5)*$C$15)^2+((1-J5)*((C$16-C$17*C$18)*C$19*C$20/C$17))^2)</f>
-        <v>0.20823520500178178</v>
+        <v>0.22356455156050575</v>
       </c>
       <c r="M5" s="9">
         <f t="shared" si="2"/>
-        <v>0.3276234823998827</v>
+        <v>0.3517416611796948</v>
       </c>
       <c r="N5" s="9">
         <f t="shared" si="3"/>
-        <v>0.34650000000000247</v>
+        <v>0.30630000000000024</v>
       </c>
       <c r="O5" s="49">
         <v>-0.22545799999999999</v>
@@ -1968,8 +1968,8 @@
         <v>0.16597899999999999</v>
       </c>
       <c r="Q5" s="10">
-        <f t="shared" ref="Q5:Q10" si="5">SQRT(K5^2+L5^2+M5^2+N5^2+O5^2+P5^2)</f>
-        <v>0.59203340700048512</v>
+        <f>SQRT(K5^2+L5^2+M5^2+N5^2+O5^2+P5^2)</f>
+        <v>0.58929216277373098</v>
       </c>
       <c r="R5" s="29"/>
       <c r="S5" s="3"/>
@@ -1986,21 +1986,21 @@
         <v>24.98</v>
       </c>
       <c r="E6" s="40">
-        <v>26.884</v>
+        <v>28.504200000000001</v>
       </c>
       <c r="F6" s="39">
         <v>24.97</v>
       </c>
       <c r="G6" s="39">
-        <v>27.308299999999999</v>
+        <v>28.8919</v>
       </c>
       <c r="H6" s="9">
         <f t="shared" si="0"/>
-        <v>27.308299999999999</v>
+        <v>28.8919</v>
       </c>
       <c r="I6" s="9">
         <f t="shared" si="1"/>
-        <v>26.884</v>
+        <v>28.504200000000001</v>
       </c>
       <c r="J6" s="39">
         <v>0.42067399999999999</v>
@@ -2010,15 +2010,15 @@
       </c>
       <c r="L6" s="9">
         <f t="shared" si="4"/>
-        <v>0.26465409999012551</v>
+        <v>0.28060383116123105</v>
       </c>
       <c r="M6" s="9">
         <f t="shared" si="2"/>
-        <v>0.37916017353977233</v>
+        <v>0.40201076545946957</v>
       </c>
       <c r="N6" s="9">
         <f t="shared" si="3"/>
-        <v>0.42429999999999879</v>
+        <v>0.38769999999999882</v>
       </c>
       <c r="O6" s="49">
         <v>-0.19301399999999999</v>
@@ -2027,8 +2027,8 @@
         <v>0.21557499999999999</v>
       </c>
       <c r="Q6" s="10">
-        <f t="shared" si="5"/>
-        <v>0.69244618692378723</v>
+        <f t="shared" ref="Q6:Q10" si="5">SQRT(K6^2+L6^2+M6^2+N6^2+O6^2+P6^2)</f>
+        <v>0.69015176414515411</v>
       </c>
       <c r="R6" s="29"/>
       <c r="S6" s="3"/>
@@ -2045,21 +2045,21 @@
         <v>29.92</v>
       </c>
       <c r="E7" s="40">
-        <v>32.764000000000003</v>
+        <v>34.378999999999998</v>
       </c>
       <c r="F7" s="39">
         <v>29.92</v>
       </c>
       <c r="G7" s="39">
-        <v>33.240200000000002</v>
+        <v>34.816600000000001</v>
       </c>
       <c r="H7" s="9">
         <f t="shared" si="0"/>
-        <v>33.240200000000002</v>
+        <v>34.816600000000001</v>
       </c>
       <c r="I7" s="9">
         <f t="shared" si="1"/>
-        <v>32.764000000000003</v>
+        <v>34.378999999999998</v>
       </c>
       <c r="J7" s="39">
         <v>0.40087499999999998</v>
@@ -2069,15 +2069,15 @@
       </c>
       <c r="L7" s="9">
         <f t="shared" si="4"/>
-        <v>0.33356162352837171</v>
+        <v>0.35000351163722038</v>
       </c>
       <c r="M7" s="9">
         <f t="shared" si="2"/>
-        <v>0.44034092036718975</v>
+        <v>0.46204616351189148</v>
       </c>
       <c r="N7" s="9">
         <f t="shared" si="3"/>
-        <v>0.47619999999999862</v>
+        <v>0.43760000000000332</v>
       </c>
       <c r="O7" s="49">
         <v>-0.21352199999999999</v>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="Q7" s="10">
         <f t="shared" si="5"/>
-        <v>0.79673790926677734</v>
+        <v>0.79394221993576852</v>
       </c>
       <c r="R7" s="29"/>
       <c r="S7" s="3"/>
@@ -2104,21 +2104,21 @@
         <v>36.42</v>
       </c>
       <c r="E8" s="40">
-        <v>39.764800000000001</v>
+        <v>41.373100000000001</v>
       </c>
       <c r="F8" s="39">
         <v>36.409999999999997</v>
       </c>
       <c r="G8" s="39">
-        <v>40.314100000000003</v>
+        <v>41.879800000000003</v>
       </c>
       <c r="H8" s="9">
         <f t="shared" si="0"/>
-        <v>40.314100000000003</v>
+        <v>41.879800000000003</v>
       </c>
       <c r="I8" s="9">
         <f t="shared" si="1"/>
-        <v>39.764800000000001</v>
+        <v>41.373100000000001</v>
       </c>
       <c r="J8" s="39">
         <v>0.38706299999999999</v>
@@ -2128,15 +2128,15 @@
       </c>
       <c r="L8" s="9">
         <f t="shared" si="4"/>
-        <v>0.41416782811699038</v>
+        <v>0.43091897782629496</v>
       </c>
       <c r="M8" s="9">
         <f t="shared" si="2"/>
-        <v>0.51601653295101813</v>
+        <v>0.53688698596335871</v>
       </c>
       <c r="N8" s="9">
         <f t="shared" si="3"/>
-        <v>0.54930000000000234</v>
+        <v>0.50670000000000215</v>
       </c>
       <c r="O8" s="49">
         <v>-0.24149300000000001</v>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="Q8" s="10">
         <f t="shared" si="5"/>
-        <v>0.92267621838452984</v>
+        <v>0.91786521504746044</v>
       </c>
       <c r="R8" s="29"/>
       <c r="S8" s="3"/>
@@ -2163,21 +2163,21 @@
         <v>45.96</v>
       </c>
       <c r="E9" s="40">
-        <v>49.695700000000002</v>
+        <v>51.252400000000002</v>
       </c>
       <c r="F9" s="39">
         <v>45.95</v>
       </c>
       <c r="G9" s="39">
-        <v>50.340400000000002</v>
+        <v>51.861199999999997</v>
       </c>
       <c r="H9" s="9">
         <f t="shared" si="0"/>
-        <v>50.340400000000002</v>
+        <v>51.861199999999997</v>
       </c>
       <c r="I9" s="9">
         <f t="shared" si="1"/>
-        <v>49.695700000000002</v>
+        <v>51.252400000000002</v>
       </c>
       <c r="J9" s="39">
         <v>0.37799700000000003</v>
@@ -2187,15 +2187,15 @@
       </c>
       <c r="L9" s="9">
         <f t="shared" si="4"/>
-        <v>0.52525840603570151</v>
+        <v>0.54171193744135182</v>
       </c>
       <c r="M9" s="9">
         <f t="shared" si="2"/>
-        <v>0.62978211198343126</v>
+        <v>0.64950981103434724</v>
       </c>
       <c r="N9" s="9">
         <f t="shared" si="3"/>
-        <v>0.64470000000000027</v>
+        <v>0.60879999999999512</v>
       </c>
       <c r="O9" s="49">
         <v>-0.23310700000000001</v>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="Q9" s="10">
         <f t="shared" si="5"/>
-        <v>1.0837655044901722</v>
+        <v>1.0827464776362425</v>
       </c>
       <c r="R9" s="29"/>
       <c r="S9" s="3"/>
@@ -2222,21 +2222,21 @@
         <v>63.54</v>
       </c>
       <c r="E10" s="40">
-        <v>68.4893</v>
+        <v>69.962100000000007</v>
       </c>
       <c r="F10" s="39">
         <v>63.53</v>
       </c>
       <c r="G10" s="39">
-        <v>69.090999999999994</v>
+        <v>70.541899999999998</v>
       </c>
       <c r="H10" s="9">
         <f t="shared" si="0"/>
-        <v>69.090999999999994</v>
+        <v>70.541899999999998</v>
       </c>
       <c r="I10" s="9">
         <f t="shared" si="1"/>
-        <v>68.4893</v>
+        <v>69.962100000000007</v>
       </c>
       <c r="J10" s="39">
         <v>0.37095299999999998</v>
@@ -2246,15 +2246,15 @@
       </c>
       <c r="L10" s="9">
         <f t="shared" si="4"/>
-        <v>0.73209517187023998</v>
+        <v>0.74783821157323727</v>
       </c>
       <c r="M10" s="9">
         <f t="shared" si="2"/>
-        <v>0.85177476783380202</v>
+        <v>0.87009140821508246</v>
       </c>
       <c r="N10" s="9">
         <f t="shared" si="3"/>
-        <v>0.60169999999999391</v>
+        <v>0.57979999999999166</v>
       </c>
       <c r="O10" s="49">
         <v>-0.19443199999999999</v>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="Q10" s="10">
         <f t="shared" si="5"/>
-        <v>1.301643151596011</v>
+        <v>1.3127214089979311</v>
       </c>
       <c r="R10" s="29"/>
       <c r="S10" s="3"/>
@@ -2331,10 +2331,10 @@
       <c r="S13" s="3"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="63"/>
+      <c r="C14" s="64"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -2528,8 +2528,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AV25"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K10"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -2551,19 +2551,19 @@
   <sheetData>
     <row r="1" spans="1:31" ht="22" customHeight="1">
       <c r="A1" s="29"/>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
       <c r="M1" s="29"/>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
@@ -2672,11 +2672,11 @@
         <v>7.1043605147666836E-4</v>
       </c>
       <c r="L4" s="61">
-        <f>C4-(E4)</f>
+        <f t="shared" ref="L4:L10" si="0">C4-(E4)</f>
         <v>6.1378200000000004E-3</v>
       </c>
       <c r="M4" s="37"/>
-      <c r="N4" s="67">
+      <c r="N4" s="62">
         <f>SQRT(K4*K4+E$13*E$13)</f>
         <v>9.9735619677112307E-4</v>
       </c>
@@ -2714,20 +2714,20 @@
         <v>0.999838</v>
       </c>
       <c r="J5" s="59">
-        <f t="shared" ref="J5:J10" si="0">((1/I5)-1)*L5</f>
+        <f t="shared" ref="J5:J10" si="1">((1/I5)-1)*L5</f>
         <v>2.8142501085178756E-7</v>
       </c>
       <c r="K5" s="17">
-        <f t="shared" ref="K5:K10" si="1">SQRT(H5^2 +G5^2 +F5^2 +J5^2)</f>
+        <f t="shared" ref="K5:K9" si="2">SQRT(H5^2 +G5^2 +F5^2 +J5^2)</f>
         <v>6.973686856333863E-4</v>
       </c>
       <c r="L5" s="61">
-        <f>C5-(E5)</f>
+        <f t="shared" si="0"/>
         <v>1.7369099999999999E-3</v>
       </c>
       <c r="M5" s="37"/>
-      <c r="N5" s="67">
-        <f t="shared" ref="N5:N10" si="2">SQRT(K5*K5+E$13*E$13)</f>
+      <c r="N5" s="62">
+        <f t="shared" ref="N5:N10" si="3">SQRT(K5*K5+E$13*E$13)</f>
         <v>9.8809062524752092E-4</v>
       </c>
       <c r="O5" s="5"/>
@@ -2764,20 +2764,20 @@
         <v>0.99704400000000004</v>
       </c>
       <c r="J6" s="59">
+        <f t="shared" si="1"/>
+        <v>1.2784832524943163E-5</v>
+      </c>
+      <c r="K6" s="17">
+        <f t="shared" si="2"/>
+        <v>9.1971609051309463E-4</v>
+      </c>
+      <c r="L6" s="61">
         <f t="shared" si="0"/>
-        <v>1.2784832524943163E-5</v>
-      </c>
-      <c r="K6" s="17">
-        <f t="shared" si="1"/>
-        <v>9.1971609051309463E-4</v>
-      </c>
-      <c r="L6" s="61">
-        <f>C6-(E6)</f>
         <v>4.3122600000000001E-3</v>
       </c>
       <c r="M6" s="37"/>
-      <c r="N6" s="67">
-        <f t="shared" si="2"/>
+      <c r="N6" s="62">
+        <f t="shared" si="3"/>
         <v>1.1558017507984192E-3</v>
       </c>
       <c r="O6" s="5"/>
@@ -2814,20 +2814,20 @@
         <v>0.99734500000000004</v>
       </c>
       <c r="J7" s="59">
+        <f t="shared" si="1"/>
+        <v>2.6230312279101559E-5</v>
+      </c>
+      <c r="K7" s="17">
+        <f t="shared" si="2"/>
+        <v>1.1054132181855161E-3</v>
+      </c>
+      <c r="L7" s="61">
         <f t="shared" si="0"/>
-        <v>2.6230312279101559E-5</v>
-      </c>
-      <c r="K7" s="17">
-        <f t="shared" si="1"/>
-        <v>1.1054132181855161E-3</v>
-      </c>
-      <c r="L7" s="61">
-        <f>C7-(E7)</f>
         <v>9.8533600000000002E-3</v>
       </c>
       <c r="M7" s="37"/>
-      <c r="N7" s="67">
-        <f t="shared" si="2"/>
+      <c r="N7" s="62">
+        <f t="shared" si="3"/>
         <v>1.3084106323854371E-3</v>
       </c>
       <c r="O7" s="5"/>
@@ -2864,20 +2864,20 @@
         <v>0.999973</v>
       </c>
       <c r="J8" s="59">
+        <f t="shared" si="1"/>
+        <v>5.0261560062213226E-7</v>
+      </c>
+      <c r="K8" s="17">
+        <f t="shared" si="2"/>
+        <v>1.4502481877200647E-3</v>
+      </c>
+      <c r="L8" s="61">
         <f t="shared" si="0"/>
-        <v>5.0261560062213226E-7</v>
-      </c>
-      <c r="K8" s="17">
-        <f t="shared" si="1"/>
-        <v>1.4502481877200647E-3</v>
-      </c>
-      <c r="L8" s="61">
-        <f>C8-(E8)</f>
         <v>1.8614889999999999E-2</v>
       </c>
       <c r="M8" s="37"/>
-      <c r="N8" s="67">
-        <f t="shared" si="2"/>
+      <c r="N8" s="62">
+        <f t="shared" si="3"/>
         <v>1.6103477282827247E-3</v>
       </c>
       <c r="O8" s="5"/>
@@ -2914,20 +2914,20 @@
         <v>0.999969</v>
       </c>
       <c r="J9" s="59">
+        <f t="shared" si="1"/>
+        <v>6.8923475627794728E-7</v>
+      </c>
+      <c r="K9" s="17">
+        <f t="shared" si="2"/>
+        <v>1.8586429790105976E-3</v>
+      </c>
+      <c r="L9" s="61">
         <f t="shared" si="0"/>
-        <v>6.8923475627794728E-7</v>
-      </c>
-      <c r="K9" s="17">
-        <f t="shared" si="1"/>
-        <v>1.8586429790105976E-3</v>
-      </c>
-      <c r="L9" s="61">
-        <f>C9-(E9)</f>
         <v>2.2232689999999999E-2</v>
       </c>
       <c r="M9" s="37"/>
-      <c r="N9" s="67">
-        <f t="shared" si="2"/>
+      <c r="N9" s="62">
+        <f t="shared" si="3"/>
         <v>1.9860900592433839E-3</v>
       </c>
       <c r="O9" s="5"/>
@@ -2964,20 +2964,20 @@
         <v>1</v>
       </c>
       <c r="J10" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="17">
+        <f>SQRT(H10^2 +G10^2 +F10^2 +J10^2)</f>
+        <v>3.0398939079092613E-3</v>
+      </c>
+      <c r="L10" s="61">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="17">
-        <f t="shared" si="1"/>
-        <v>3.0398939079092613E-3</v>
-      </c>
-      <c r="L10" s="61">
-        <f>C10-(E10)</f>
         <v>9.1493180000000007E-2</v>
       </c>
       <c r="M10" s="37"/>
-      <c r="N10" s="67">
-        <f t="shared" si="2"/>
+      <c r="N10" s="62">
+        <f t="shared" si="3"/>
         <v>3.1194478632193615E-3</v>
       </c>
       <c r="O10" s="5"/>

--- a/Sheets/DiJet-EW.xlsx
+++ b/Sheets/DiJet-EW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/Run15/DijetAsymmetryAnalysis/DijetALLCode/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E6B44F-537C-DE45-9C35-4BBC153F0850}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E234271-BFDF-9045-B49E-F1F7AC05B565}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-20400" windowWidth="24000" windowHeight="38400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-19940" windowWidth="24000" windowHeight="37940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scale - EW" sheetId="12" r:id="rId1"/>
@@ -1746,8 +1746,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G10"/>
+    <sheetView showRuler="0" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -2528,8 +2528,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AV25"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -2649,7 +2649,7 @@
         <v>4.0249999999999999E-3</v>
       </c>
       <c r="E4" s="50">
-        <v>1.68418E-3</v>
+        <v>1.15156E-3</v>
       </c>
       <c r="F4" s="38">
         <v>4.0321600000000002E-4</v>
@@ -2658,27 +2658,27 @@
         <v>-1.10239E-4</v>
       </c>
       <c r="H4" s="38">
-        <v>5.7444099999999997E-4</v>
+        <v>3.5391099999999999E-4</v>
       </c>
       <c r="I4" s="55">
         <v>0.99982599999999999</v>
       </c>
       <c r="J4" s="59">
         <f>((1/I4)-1)*L4</f>
-        <v>1.0681665409781515E-6</v>
+        <v>1.1608585493876167E-6</v>
       </c>
       <c r="K4" s="17">
         <f>SQRT(H4^2 +G4^2 +F4^2 +J4^2)</f>
-        <v>7.1043605147666836E-4</v>
+        <v>5.4771354127004356E-4</v>
       </c>
       <c r="L4" s="61">
         <f t="shared" ref="L4:L10" si="0">C4-(E4)</f>
-        <v>6.1378200000000004E-3</v>
+        <v>6.6704400000000006E-3</v>
       </c>
       <c r="M4" s="37"/>
       <c r="N4" s="62">
         <f>SQRT(K4*K4+E$13*E$13)</f>
-        <v>9.9735619677112307E-4</v>
+        <v>8.8881388563105364E-4</v>
       </c>
       <c r="O4" s="5"/>
       <c r="P4" s="7"/>
@@ -2699,7 +2699,7 @@
         <v>2.7390000000000001E-3</v>
       </c>
       <c r="E5" s="50">
-        <v>1.9750900000000001E-3</v>
+        <v>1.29941E-3</v>
       </c>
       <c r="F5" s="38">
         <v>3.2928599999999998E-4</v>
@@ -2708,27 +2708,27 @@
         <v>-1.6493500000000001E-4</v>
       </c>
       <c r="H5" s="38">
-        <v>5.9219100000000005E-4</v>
+        <v>3.04925E-4</v>
       </c>
       <c r="I5" s="55">
         <v>0.999838</v>
       </c>
       <c r="J5" s="59">
         <f t="shared" ref="J5:J10" si="1">((1/I5)-1)*L5</f>
-        <v>2.8142501085178756E-7</v>
+        <v>3.9090290627085694E-7</v>
       </c>
       <c r="K5" s="17">
         <f t="shared" ref="K5:K9" si="2">SQRT(H5^2 +G5^2 +F5^2 +J5^2)</f>
-        <v>6.973686856333863E-4</v>
+        <v>4.7813411554822373E-4</v>
       </c>
       <c r="L5" s="61">
         <f t="shared" si="0"/>
-        <v>1.7369099999999999E-3</v>
+        <v>2.41259E-3</v>
       </c>
       <c r="M5" s="37"/>
       <c r="N5" s="62">
         <f t="shared" ref="N5:N10" si="3">SQRT(K5*K5+E$13*E$13)</f>
-        <v>9.8809062524752092E-4</v>
+        <v>8.4770999312918456E-4</v>
       </c>
       <c r="O5" s="5"/>
       <c r="P5" s="7"/>
@@ -2749,7 +2749,7 @@
         <v>3.166E-3</v>
       </c>
       <c r="E6" s="50">
-        <v>2.1857399999999998E-3</v>
+        <v>1.2671399999999999E-3</v>
       </c>
       <c r="F6" s="38">
         <v>4.2509699999999999E-4</v>
@@ -2758,27 +2758,27 @@
         <v>-1.36766E-4</v>
       </c>
       <c r="H6" s="38">
-        <v>8.0392899999999999E-4</v>
+        <v>3.9135E-4</v>
       </c>
       <c r="I6" s="55">
         <v>0.99704400000000004</v>
       </c>
       <c r="J6" s="59">
         <f t="shared" si="1"/>
-        <v>1.2784832524943163E-5</v>
+        <v>1.5508264590127729E-5</v>
       </c>
       <c r="K6" s="17">
         <f t="shared" si="2"/>
-        <v>9.1971609051309463E-4</v>
+        <v>5.9397620064746486E-4</v>
       </c>
       <c r="L6" s="61">
         <f t="shared" si="0"/>
-        <v>4.3122600000000001E-3</v>
+        <v>5.2308600000000004E-3</v>
       </c>
       <c r="M6" s="37"/>
       <c r="N6" s="62">
         <f t="shared" si="3"/>
-        <v>1.1558017507984192E-3</v>
+        <v>9.1804560177346172E-4</v>
       </c>
       <c r="O6" s="5"/>
       <c r="P6" s="7"/>
@@ -2799,7 +2799,7 @@
         <v>4.431E-3</v>
       </c>
       <c r="E7" s="50">
-        <v>1.89464E-3</v>
+        <v>7.0657499999999998E-4</v>
       </c>
       <c r="F7" s="38">
         <v>5.6556399999999995E-4</v>
@@ -2808,27 +2808,27 @@
         <v>-1.13381E-4</v>
       </c>
       <c r="H7" s="38">
-        <v>9.4262000000000002E-4</v>
+        <v>3.6793500000000001E-4</v>
       </c>
       <c r="I7" s="55">
         <v>0.99734500000000004</v>
       </c>
       <c r="J7" s="59">
         <f t="shared" si="1"/>
-        <v>2.6230312279101559E-5</v>
+        <v>2.9393021848007068E-5</v>
       </c>
       <c r="K7" s="17">
         <f t="shared" si="2"/>
-        <v>1.1054132181855161E-3</v>
+        <v>6.8480508410448978E-4</v>
       </c>
       <c r="L7" s="61">
         <f t="shared" si="0"/>
-        <v>9.8533600000000002E-3</v>
+        <v>1.1041425000000001E-2</v>
       </c>
       <c r="M7" s="37"/>
       <c r="N7" s="62">
         <f t="shared" si="3"/>
-        <v>1.3084106323854371E-3</v>
+        <v>9.7926401098751567E-4</v>
       </c>
       <c r="O7" s="5"/>
       <c r="P7" s="7"/>
@@ -2849,7 +2849,7 @@
         <v>6.8380000000000003E-3</v>
       </c>
       <c r="E8" s="50">
-        <v>1.4401100000000001E-3</v>
+        <v>-7.7732700000000002E-5</v>
       </c>
       <c r="F8" s="38">
         <v>7.6092399999999995E-4</v>
@@ -2858,27 +2858,27 @@
         <v>-9.5261700000000003E-5</v>
       </c>
       <c r="H8" s="38">
-        <v>1.23091E-3</v>
+        <v>4.72697E-4</v>
       </c>
       <c r="I8" s="55">
         <v>0.999973</v>
       </c>
       <c r="J8" s="59">
         <f t="shared" si="1"/>
-        <v>5.0261560062213226E-7</v>
+        <v>5.4359846005941184E-7</v>
       </c>
       <c r="K8" s="17">
         <f t="shared" si="2"/>
-        <v>1.4502481877200647E-3</v>
+        <v>9.0084564414286638E-4</v>
       </c>
       <c r="L8" s="61">
         <f t="shared" si="0"/>
-        <v>1.8614889999999999E-2</v>
+        <v>2.0132732699999999E-2</v>
       </c>
       <c r="M8" s="37"/>
       <c r="N8" s="62">
         <f t="shared" si="3"/>
-        <v>1.6103477282827247E-3</v>
+        <v>1.1408430543116681E-3</v>
       </c>
       <c r="O8" s="5"/>
       <c r="P8" s="7"/>
@@ -2899,7 +2899,7 @@
         <v>9.7029999999999998E-3</v>
       </c>
       <c r="E9" s="50">
-        <v>1.0733100000000001E-3</v>
+        <v>-7.1404499999999996E-4</v>
       </c>
       <c r="F9" s="38">
         <v>8.2478E-4</v>
@@ -2908,27 +2908,27 @@
         <v>-7.9542200000000006E-5</v>
       </c>
       <c r="H9" s="38">
-        <v>1.66372E-3</v>
+        <v>8.9332599999999995E-4</v>
       </c>
       <c r="I9" s="55">
         <v>0.999969</v>
       </c>
       <c r="J9" s="59">
         <f t="shared" si="1"/>
-        <v>6.8923475627794728E-7</v>
+        <v>7.446444789793914E-7</v>
       </c>
       <c r="K9" s="17">
         <f t="shared" si="2"/>
-        <v>1.8586429790105976E-3</v>
+        <v>1.2184502069236313E-3</v>
       </c>
       <c r="L9" s="61">
         <f t="shared" si="0"/>
-        <v>2.2232689999999999E-2</v>
+        <v>2.4020045E-2</v>
       </c>
       <c r="M9" s="37"/>
       <c r="N9" s="62">
         <f t="shared" si="3"/>
-        <v>1.9860900592433839E-3</v>
+        <v>1.4052120504579513E-3</v>
       </c>
       <c r="O9" s="5"/>
       <c r="P9" s="7"/>
@@ -2949,7 +2949,7 @@
         <v>3.0439999999999998E-2</v>
       </c>
       <c r="E10" s="50">
-        <v>8.2981999999999999E-4</v>
+        <v>-1.03396E-3</v>
       </c>
       <c r="F10" s="38">
         <v>1.4782700000000001E-3</v>
@@ -2958,7 +2958,7 @@
         <v>-6.6062799999999994E-5</v>
       </c>
       <c r="H10" s="38">
-        <v>2.6554299999999999E-3</v>
+        <v>1.3699700000000001E-3</v>
       </c>
       <c r="I10" s="55">
         <v>1</v>
@@ -2969,16 +2969,16 @@
       </c>
       <c r="K10" s="17">
         <f>SQRT(H10^2 +G10^2 +F10^2 +J10^2)</f>
-        <v>3.0398939079092613E-3</v>
+        <v>2.0165476159376551E-3</v>
       </c>
       <c r="L10" s="61">
         <f t="shared" si="0"/>
-        <v>9.1493180000000007E-2</v>
+        <v>9.3356960000000003E-2</v>
       </c>
       <c r="M10" s="37"/>
       <c r="N10" s="62">
         <f t="shared" si="3"/>
-        <v>3.1194478632193615E-3</v>
+        <v>2.1345876152886866E-3</v>
       </c>
       <c r="O10" s="5"/>
       <c r="P10" s="7"/>
